--- a/DILIDILI, AIREEN.xlsx
+++ b/DILIDILI, AIREEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="86">
   <si>
     <t>PERIOD</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/16,17,22/2023</t>
   </si>
 </sst>
 </file>
@@ -671,9 +677,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -683,17 +686,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,247 +715,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1191,6 +956,247 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1222,25 +1228,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K284" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K284" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1252,25 +1258,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K284" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K284" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1608,62 +1614,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="54">
         <v>38019</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1689,18 +1695,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7092,17 +7098,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -7140,7 +7146,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A151" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7162,62 +7168,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="54">
         <v>38019</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -7243,18 +7249,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7301,7 +7307,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.853999999999999</v>
+        <v>86.103999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7311,7 +7317,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>193.917</v>
+        <v>195.167</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10624,19 +10630,27 @@
       <c r="A167" s="41">
         <v>44986</v>
       </c>
-      <c r="B167" s="20"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="40"/>
+      <c r="B167" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C167" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D167" s="40">
+        <v>3</v>
+      </c>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
-      <c r="G167" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G167" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H167" s="40"/>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
+      <c r="K167" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41">

--- a/DILIDILI, AIREEN.xlsx
+++ b/DILIDILI, AIREEN.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>3/16,17,22/2023</t>
+  </si>
+  <si>
+    <t>5/25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -680,17 +683,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -700,6 +700,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1622,14 +1625,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1640,16 +1643,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>38019</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1662,14 +1665,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1695,18 +1698,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7098,17 +7101,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -7144,9 +7147,9 @@
   <dimension ref="A2:K284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A151" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A150" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7176,14 +7179,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -7194,16 +7197,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>38019</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -7216,14 +7219,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -7249,18 +7252,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7307,7 +7310,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.103999999999999</v>
+        <v>85.353999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7317,7 +7320,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>195.167</v>
+        <v>196.417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10657,13 +10660,15 @@
         <v>45017</v>
       </c>
       <c r="B168" s="20"/>
-      <c r="C168" s="13"/>
+      <c r="C168" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D168" s="40"/>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H168" s="40"/>
       <c r="I168" s="9"/>
@@ -10674,9 +10679,13 @@
       <c r="A169" s="41">
         <v>45047</v>
       </c>
-      <c r="B169" s="20"/>
+      <c r="B169" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C169" s="13"/>
-      <c r="D169" s="40"/>
+      <c r="D169" s="40">
+        <v>2</v>
+      </c>
       <c r="E169" s="9"/>
       <c r="F169" s="20"/>
       <c r="G169" s="13" t="str">
@@ -10686,7 +10695,9 @@
       <c r="H169" s="40"/>
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
+      <c r="K169" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">

--- a/DILIDILI, AIREEN.xlsx
+++ b/DILIDILI, AIREEN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>5/25,26/2023</t>
+  </si>
+  <si>
+    <t>6/19,20/2023</t>
   </si>
 </sst>
 </file>
@@ -683,14 +686,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -700,9 +706,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1261,7 +1264,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K284" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K286" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1592,7 +1595,7 @@
   </sheetPr>
   <dimension ref="A2:K284"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A151" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
       <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
@@ -1625,14 +1628,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1643,16 +1646,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <v>38019</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1665,14 +1668,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1698,18 +1701,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7101,17 +7104,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -7144,12 +7147,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K284"/>
+  <dimension ref="A2:K286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A150" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
+      <selection pane="bottomLeft" activeCell="K171" sqref="K171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7179,14 +7182,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -7197,16 +7200,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <v>38019</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -7219,14 +7222,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -7252,18 +7255,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7310,7 +7313,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.353999999999999</v>
+        <v>84.603999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -7320,7 +7323,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>196.417</v>
+        <v>197.667</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10682,15 +10685,17 @@
       <c r="B169" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C169" s="13"/>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D169" s="40">
         <v>2</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H169" s="40"/>
       <c r="I169" s="9"/>
@@ -10700,10 +10705,10 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="41">
-        <v>45078</v>
-      </c>
-      <c r="B170" s="20"/>
+      <c r="A170" s="41"/>
+      <c r="B170" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C170" s="13"/>
       <c r="D170" s="40"/>
       <c r="E170" s="9"/>
@@ -10715,15 +10720,19 @@
       <c r="H170" s="40"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="48">
+        <v>45084</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="41">
-        <v>45108</v>
-      </c>
-      <c r="B171" s="20"/>
+      <c r="A171" s="41"/>
+      <c r="B171" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C171" s="13"/>
-      <c r="D171" s="40"/>
+      <c r="D171" s="40">
+        <v>2</v>
+      </c>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -10733,11 +10742,13 @@
       <c r="H171" s="40"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="20"/>
+      <c r="K171" s="48" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -10755,7 +10766,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -10773,7 +10784,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -10791,7 +10802,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -10809,7 +10820,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -10827,7 +10838,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -10845,7 +10856,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -10863,7 +10874,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -10881,7 +10892,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -10899,7 +10910,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -10917,7 +10928,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -10935,7 +10946,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -10953,7 +10964,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -10971,7 +10982,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -10989,7 +11000,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -11007,7 +11018,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -11025,7 +11036,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -11043,7 +11054,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -11061,7 +11072,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -11079,7 +11090,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="41">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -11097,7 +11108,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -11115,7 +11126,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="41">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -11133,7 +11144,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="41">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -11151,7 +11162,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -11169,7 +11180,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="41">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -11187,7 +11198,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="41">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -11205,7 +11216,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -11223,7 +11234,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -11241,7 +11252,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -11259,7 +11270,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -11277,7 +11288,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -11295,7 +11306,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -11313,7 +11324,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="41">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -11331,7 +11342,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -11349,7 +11360,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -11367,7 +11378,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -11385,7 +11396,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="41">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -11403,7 +11414,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="41">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -11421,7 +11432,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="41">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -11439,7 +11450,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -11457,7 +11468,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -11475,7 +11486,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -11493,7 +11504,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="41">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -11511,7 +11522,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="41">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -11529,7 +11540,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="41">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -11547,7 +11558,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="41">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -11565,7 +11576,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="41">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -11583,7 +11594,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="41">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -11601,7 +11612,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -11619,7 +11630,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="41">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -11637,7 +11648,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="41">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -11655,7 +11666,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="41">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -11673,7 +11684,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="41">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -11691,7 +11702,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="41">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -11709,7 +11720,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="41">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -11727,7 +11738,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="41">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -11745,7 +11756,7 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="41">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -11763,7 +11774,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="41">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -11781,7 +11792,7 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="41">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -11799,7 +11810,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="41">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -11817,7 +11828,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="41">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -11835,7 +11846,7 @@
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="41">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -11853,7 +11864,7 @@
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="41">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -11870,7 +11881,9 @@
       <c r="K234" s="20"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="41"/>
+      <c r="A235" s="41">
+        <v>46997</v>
+      </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
       <c r="D235" s="40"/>
@@ -11886,7 +11899,9 @@
       <c r="K235" s="20"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="41"/>
+      <c r="A236" s="41">
+        <v>47027</v>
+      </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
       <c r="D236" s="40"/>
@@ -12654,20 +12669,52 @@
       <c r="K283" s="20"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="42"/>
-      <c r="B284" s="15"/>
-      <c r="C284" s="43"/>
-      <c r="D284" s="44"/>
+      <c r="A284" s="41"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="13"/>
+      <c r="D284" s="40"/>
       <c r="E284" s="9"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H284" s="44"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H284" s="40"/>
       <c r="I284" s="9"/>
-      <c r="J284" s="12"/>
-      <c r="K284" s="15"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="20"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="41"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="13"/>
+      <c r="D285" s="40"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H285" s="40"/>
+      <c r="I285" s="9"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="20"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="42"/>
+      <c r="B286" s="15"/>
+      <c r="C286" s="43"/>
+      <c r="D286" s="44"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H286" s="44"/>
+      <c r="I286" s="9"/>
+      <c r="J286" s="12"/>
+      <c r="K286" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/DILIDILI, AIREEN.xlsx
+++ b/DILIDILI, AIREEN.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -686,17 +686,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -706,6 +703,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1596,9 +1596,9 @@
   <dimension ref="A2:K284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A151" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A154" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="H167" sqref="H167"/>
+      <selection pane="bottomLeft" activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,14 +1628,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1646,16 +1646,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>38019</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1668,14 +1668,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1701,18 +1701,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7104,17 +7104,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -7150,9 +7150,9 @@
   <dimension ref="A2:K286"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A150" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A156" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="K171" sqref="K171"/>
+      <selection pane="bottomLeft" activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7182,14 +7182,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -7200,16 +7200,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>38019</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -7222,14 +7222,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -7255,18 +7255,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7323,7 +7323,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>197.667</v>
+        <v>196.667</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10750,7 +10750,9 @@
       <c r="A172" s="41">
         <v>45078</v>
       </c>
-      <c r="B172" s="20"/>
+      <c r="B172" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C172" s="13"/>
       <c r="D172" s="40"/>
       <c r="E172" s="9"/>
@@ -10759,10 +10761,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H172" s="40"/>
+      <c r="H172" s="40">
+        <v>1</v>
+      </c>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="20"/>
+      <c r="K172" s="48">
+        <v>45085</v>
+      </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="41">

--- a/DILIDILI, AIREEN.xlsx
+++ b/DILIDILI, AIREEN.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -686,14 +686,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -703,9 +706,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1598,7 +1598,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A154" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="H166" sqref="H166"/>
+      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,14 +1628,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1646,16 +1646,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <v>38019</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1668,14 +1668,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1701,18 +1701,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.853999999999999</v>
+        <v>92.853999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1769,7 +1769,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>193.917</v>
+        <v>197.917</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5083,13 +5083,15 @@
         <v>44986</v>
       </c>
       <c r="B167" s="20"/>
-      <c r="C167" s="13"/>
+      <c r="C167" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D167" s="40"/>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
-      <c r="G167" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G167" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H167" s="40"/>
       <c r="I167" s="9"/>
@@ -5101,13 +5103,15 @@
         <v>45017</v>
       </c>
       <c r="B168" s="20"/>
-      <c r="C168" s="13"/>
+      <c r="C168" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D168" s="40"/>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H168" s="40"/>
       <c r="I168" s="9"/>
@@ -5119,13 +5123,15 @@
         <v>45047</v>
       </c>
       <c r="B169" s="20"/>
-      <c r="C169" s="13"/>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D169" s="40"/>
       <c r="E169" s="9"/>
       <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H169" s="40"/>
       <c r="I169" s="9"/>
@@ -5137,13 +5143,15 @@
         <v>45078</v>
       </c>
       <c r="B170" s="20"/>
-      <c r="C170" s="13"/>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D170" s="40"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H170" s="40"/>
       <c r="I170" s="9"/>
@@ -5154,7 +5162,9 @@
       <c r="A171" s="41">
         <v>45108</v>
       </c>
-      <c r="B171" s="20"/>
+      <c r="B171" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C171" s="13"/>
       <c r="D171" s="40"/>
       <c r="E171" s="9"/>
@@ -5163,10 +5173,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H171" s="40"/>
+      <c r="H171" s="40">
+        <v>1</v>
+      </c>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="20"/>
+      <c r="K171" s="48">
+        <v>45113</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="41">
@@ -7104,17 +7118,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -7182,14 +7196,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -7200,16 +7214,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <v>38019</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -7222,14 +7236,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -7255,18 +7269,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/DILIDILI, AIREEN.xlsx
+++ b/DILIDILI, AIREEN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1595,10 +1595,10 @@
   </sheetPr>
   <dimension ref="A2:K284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A154" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A163" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="I171" sqref="I171"/>
+      <selection pane="bottomLeft" activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1759,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>92.853999999999999</v>
+        <v>95.353999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1769,7 +1769,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>197.917</v>
+        <v>200.417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5165,13 +5165,15 @@
       <c r="B171" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C171" s="13"/>
+      <c r="C171" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D171" s="40"/>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G171" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H171" s="40">
         <v>1</v>
@@ -5187,13 +5189,15 @@
         <v>45139</v>
       </c>
       <c r="B172" s="20"/>
-      <c r="C172" s="13"/>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D172" s="40"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H172" s="40"/>
       <c r="I172" s="9"/>
@@ -5204,7 +5208,9 @@
       <c r="A173" s="41">
         <v>45170</v>
       </c>
-      <c r="B173" s="20"/>
+      <c r="B173" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C173" s="13"/>
       <c r="D173" s="40"/>
       <c r="E173" s="9"/>
@@ -5216,7 +5222,9 @@
       <c r="H173" s="40"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="20"/>
+      <c r="K173" s="48">
+        <v>45187</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="41">
@@ -7163,10 +7171,10 @@
   </sheetPr>
   <dimension ref="A2:K286"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A156" activePane="bottomLeft"/>
       <selection activeCell="B9" sqref="B9"/>
-      <selection pane="bottomLeft" activeCell="K173" sqref="K173"/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10824,7 +10832,9 @@
       <c r="A175" s="41">
         <v>45170</v>
       </c>
-      <c r="B175" s="20"/>
+      <c r="B175" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C175" s="13"/>
       <c r="D175" s="40"/>
       <c r="E175" s="9"/>
@@ -10836,7 +10846,9 @@
       <c r="H175" s="40"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20"/>
+      <c r="K175" s="48">
+        <v>45174</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41">
